--- a/main/ExamQuestionsLecure4.xlsx
+++ b/main/ExamQuestionsLecure4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEO309\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B470AC-65E7-4E21-A522-1BFB16218401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38534EDA-6DDB-4B15-BDA9-E4B75AD8A7C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11952" xr2:uid="{7B30B9D5-F944-4DC7-BB71-4FEBCEA1AEDA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">What is the gradual adaptation model? </t>
   </si>
@@ -42,9 +42,6 @@
     <t>Describe three important milestones in human evolution.</t>
   </si>
   <si>
-    <t>What is the significnace for homo species when the mastered fire?</t>
-  </si>
-  <si>
     <t>What is admixture</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>How were those movement pathwaths revealed by scientists?</t>
+  </si>
+  <si>
+    <t>What is the significnace for homo species when they mastered fire?</t>
+  </si>
+  <si>
+    <t>why are some many haplogroups of humans in different parts of the world have not turned into different species?</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,11 +496,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
